--- a/dados/jdb automotivos.xlsx
+++ b/dados/jdb automotivos.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:606111161#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:606111161#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=a38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Automotiva Jfa 70a Amperes Bivolt Volt./ Amp. Digital</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>657.1900000000001</v>
+        <v>519.39</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:606111161#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1992290316-fonte-automotiva-jfa-70a-amperes-bivolt-volt-amp-digital-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Jfa Carregador De Bateria 120a Storm Lite</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>725.4</v>
+        <v>590.55</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:606111161#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4593054166-fonte-jfa-carregador-de-bateria-120a-storm-lite-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,22 +628,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>389.8</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>365.3</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -656,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:606111161#searchVariation=MLB23456525&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:606111161#searchVariation=MLB33435981&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=a38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Jfa Carregador De Bateria 200a Storm Lite</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>443.07</v>
+        <v>702.28</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:606111161#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4593089904-fonte-jfa-carregador-de-bateria-200a-storm-lite-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,22 +714,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Conversor Jfa Rca Comando Remoto Slim</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>544.9</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>60.18</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -741,19 +733,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:606111161#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2005938728-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,18 +755,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>365.3</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>552.34</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -787,14 +783,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:606111161#searchVariation=MLB33435981&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:606111161#searchVariation=MLB23998473&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=a38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,22 +800,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 200a Storm Lite</t>
+          <t>Fonte Jfa Carregador De Bateria 40a Storm Lite</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>777.9</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>391.8</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -832,14 +824,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4592987920-fonte-jfa-carregador-de-bateria-200a-storm-lite-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4593303780-fonte-jfa-carregador-de-bateria-40a-storm-lite-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,16 +841,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 200a Bob Storm</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>731.39</v>
+        <v>375.89</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -872,19 +864,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3651814431-fonte-jfa-carregador-de-bateria-200a-bob-storm-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:606111161#searchVariation=MLB23456525&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=a38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,20 +886,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
+          <t>Fonte Jfa Carregador De Bateria 120a Bob Storm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>434.42</v>
+        <v>568.15</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -917,19 +909,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3652790131-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4590469268-fonte-jfa-carregador-de-bateria-120a-bob-storm-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +931,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 60a Storm Lite</t>
+          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>418</v>
+        <v>420.99</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -962,19 +954,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3652830295-fonte-jfa-carregador-de-bateria-60a-storm-lite-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3652863023-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,7 +976,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 40a Storm Lite</t>
+          <t>Conversor Jfa Rca Comando Remoto Slim</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -993,7 +985,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>391.8</v>
+        <v>59</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
@@ -1003,19 +995,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4593303780-fonte-jfa-carregador-de-bateria-40a-storm-lite-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1988968773-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,18 +1017,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Conversor Jfa Rca Comando Remoto Slim</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>57.17</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>473.28</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1049,14 +1045,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2005938728-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:606111161#searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=a38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1066,16 +1062,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 120a Storm Lite</t>
+          <t>Fonte Jfa Carregador De Bateria 60a Storm Lite</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>584.4</v>
+        <v>402.13</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1094,14 +1090,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4593054166-fonte-jfa-carregador-de-bateria-120a-storm-lite-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3652830295-fonte-jfa-carregador-de-bateria-60a-storm-lite-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,18 +1107,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Conversor Jfa Rca Comando Remoto Slim</t>
+          <t>Fonte Jfa Carregador De Bateria 200a Bob Storm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>56.05</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>731.39</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1130,19 +1130,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1988968773-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3651814431-fonte-jfa-carregador-de-bateria-200a-bob-storm-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1152,16 +1152,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>408.73</v>
+        <v>624.33</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1180,14 +1180,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3652863023-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:606111161#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=a38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1197,16 +1197,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 120a Bob Storm</t>
+          <t>Fonte Jfa Carregador De Bateria 60a Storm Plus</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>568.15</v>
+        <v>466.39</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4590469268-fonte-jfa-carregador-de-bateria-120a-bob-storm-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4593041404-fonte-jfa-carregador-de-bateria-60a-storm-plus-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1242,20 +1242,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 70a Amperes Bivolt Volt./ Amp. Digital</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>493.42</v>
+        <v>738.21</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1992290316-fonte-automotiva-jfa-70a-amperes-bivolt-volt-amp-digital-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D262d6303-7a24-4197-9dc6-806b976330ab</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:606111161#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=a38455d8-2d0f-4b5e-ba79-dcd4a8415b19</t>
         </is>
       </c>
     </row>
